--- a/assets/files/papers_index_show_temp.xlsx
+++ b/assets/files/papers_index_show_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AAA_AutoI_Lab\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4119B1-ED74-44BC-B2EC-225C67601DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA34A1-4743-4E99-B7B0-E3592DD7B1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="1470" windowWidth="22340" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="330">
   <si>
     <t>年份</t>
   </si>
@@ -1158,6 +1158,10 @@
   </si>
   <si>
     <t>https://scholar.google.com/scholar?cluster=3476245502455093366&amp;hl=en&amp;oi=scholarr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1644,9 +1648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1664,6 +1668,9 @@
     <row r="1" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
